--- a/KetQuaTest_LoginService.xlsx
+++ b/KetQuaTest_LoginService.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -39,15 +39,15 @@
   </si>
   <si>
     <t>Đăng nhập với input rỗng</t>
+  </si>
+  <si>
+    <t>User: "", Pass: "123"</t>
   </si>
   <si>
     <t>1. Nhập username rỗng
 2. Gọi hàm login</t>
   </si>
   <si>
-    <t>User: "", Pass: "123"</t>
-  </si>
-  <si>
     <t>Trạng thái: FAILED_CREDENTIALS</t>
   </si>
   <si>
@@ -57,19 +57,35 @@
     <t>PASS</t>
   </si>
   <si>
+    <t>AUTH_06</t>
+  </si>
+  <si>
+    <t>Lỗi hệ thống (Database Error)</t>
+  </si>
+  <si>
+    <t>User: any, Pass: any</t>
+  </si>
+  <si>
+    <t>1. Mock DAO ném Exception
+2. Service catch và trả về lỗi hệ thống</t>
+  </si>
+  <si>
+    <t>Trạng thái: FAILED_SYSTEM_ERROR</t>
+  </si>
+  <si>
     <t>AUTH_05</t>
   </si>
   <si>
     <t>Đăng nhập role lạ (Hacker/Lỗi data)</t>
+  </si>
+  <si>
+    <t>User: hacker, Role: hacker_role</t>
   </si>
   <si>
     <t>1. Mock DAO trả về role 'hacker'
 2. Switch case check role</t>
   </si>
   <si>
-    <t>User: hacker, Role: hacker_role</t>
-  </si>
-  <si>
     <t>Trạng thái: FAILED_INVALID_ROLE</t>
   </si>
   <si>
@@ -77,28 +93,28 @@
   </si>
   <si>
     <t>Đăng nhập sai thông tin</t>
+  </si>
+  <si>
+    <t>User: wrongUser, Pass: 123</t>
   </si>
   <si>
     <t>1. Mock DAO trả về null (không tìm thấy)
 2. Gọi login</t>
   </si>
   <si>
-    <t>User: wrongUser, Pass: 123</t>
-  </si>
-  <si>
     <t>AUTH_04</t>
   </si>
   <si>
     <t>Đăng nhập thành công (User thường)</t>
+  </si>
+  <si>
+    <t>User: user1, Role: user</t>
   </si>
   <si>
     <t>1. Mock DAO trả về User thường
 2. Check Role</t>
   </si>
   <si>
-    <t>User: user1, Role: user</t>
-  </si>
-  <si>
     <t>Trạng thái: SUCCESS_USER</t>
   </si>
   <si>
@@ -106,13 +122,13 @@
   </si>
   <si>
     <t>Đăng nhập thành công (Admin)</t>
+  </si>
+  <si>
+    <t>User: admin, Role: admin</t>
   </si>
   <si>
     <t>1. Mock DAO trả về User Admin
 2. Check Role</t>
-  </si>
-  <si>
-    <t>User: admin, Role: admin</t>
   </si>
   <si>
     <t>Trạng thái: SUCCESS_ADMIN</t>
@@ -193,7 +209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -201,9 +217,9 @@
   <cols>
     <col min="1" max="1" width="9.4921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.35546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="37.4921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="28.96875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="31.515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="28.96875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="37.4921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="32.7734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
@@ -291,7 +307,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -302,19 +318,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -343,6 +359,29 @@
         <v>12</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="2">
         <v>13</v>
       </c>
     </row>
